--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
@@ -213,18 +213,18 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="bvzqyca5" xfId="1"/>
-    <cellStyle name="bvzqyca5_Alternate" xfId="2"/>
-    <cellStyle name="j0a0jtta" xfId="3"/>
-    <cellStyle name="j0a0jtta_Alternate" xfId="4"/>
-    <cellStyle name="jinjubrv" xfId="5"/>
-    <cellStyle name="jinjubrv_Alternate" xfId="6"/>
-    <cellStyle name="wvmdl0ae" xfId="7"/>
-    <cellStyle name="wvmdl0ae_Alternate" xfId="8"/>
-    <cellStyle name="brfn24yd" xfId="9"/>
-    <cellStyle name="brfn24yd_Alternate" xfId="10"/>
-    <cellStyle name="1cqyutrp" xfId="11"/>
-    <cellStyle name="1cqyutrp_Alternate" xfId="12"/>
+    <cellStyle name="3yz5s25n" xfId="1"/>
+    <cellStyle name="3yz5s25n_Alternate" xfId="2"/>
+    <cellStyle name="2ddk0eqk" xfId="3"/>
+    <cellStyle name="2ddk0eqk_Alternate" xfId="4"/>
+    <cellStyle name="bveod2i0" xfId="5"/>
+    <cellStyle name="bveod2i0_Alternate" xfId="6"/>
+    <cellStyle name="4wkt1yjx" xfId="7"/>
+    <cellStyle name="4wkt1yjx_Alternate" xfId="8"/>
+    <cellStyle name="aminhhn0" xfId="9"/>
+    <cellStyle name="aminhhn0_Alternate" xfId="10"/>
+    <cellStyle name="ymsucw4z" xfId="11"/>
+    <cellStyle name="ymsucw4z_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -37,19 +37,94 @@
     <t>Profit</t>
   </si>
   <si>
+    <t>12001</t>
+  </si>
+  <si>
     <t>Nails</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>3,99</t>
+  </si>
+  <si>
+    <t>2,69</t>
+  </si>
+  <si>
+    <t>12002</t>
+  </si>
+  <si>
     <t>Hammer</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5,33</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>6,77</t>
+  </si>
+  <si>
+    <t>12003</t>
+  </si>
+  <si>
     <t>Saw</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8,99</t>
+  </si>
+  <si>
+    <t>15,37</t>
+  </si>
+  <si>
+    <t>6,38</t>
+  </si>
+  <si>
+    <t>12010</t>
+  </si>
+  <si>
     <t>Drill</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>12011</t>
+  </si>
+  <si>
     <t>Crowbar</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13,77</t>
+  </si>
+  <si>
+    <t>23,48</t>
+  </si>
+  <si>
+    <t>9,71</t>
   </si>
   <si>
     <t>Total</t>
@@ -62,10 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="##0;[Black]\-##0"/>
-    <numFmt numFmtId="165" formatCode="##0.00;[Black]\-##0.00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -141,10 +213,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
@@ -153,22 +225,22 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -180,10 +252,10 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
@@ -192,39 +264,39 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="3yz5s25n" xfId="1"/>
-    <cellStyle name="3yz5s25n_Alternate" xfId="2"/>
-    <cellStyle name="2ddk0eqk" xfId="3"/>
-    <cellStyle name="2ddk0eqk_Alternate" xfId="4"/>
-    <cellStyle name="bveod2i0" xfId="5"/>
-    <cellStyle name="bveod2i0_Alternate" xfId="6"/>
-    <cellStyle name="4wkt1yjx" xfId="7"/>
-    <cellStyle name="4wkt1yjx_Alternate" xfId="8"/>
-    <cellStyle name="aminhhn0" xfId="9"/>
-    <cellStyle name="aminhhn0_Alternate" xfId="10"/>
-    <cellStyle name="ymsucw4z" xfId="11"/>
-    <cellStyle name="ymsucw4z_Alternate" xfId="12"/>
+    <cellStyle name="vpljxycw" xfId="1"/>
+    <cellStyle name="vpljxycw_Alternate" xfId="2"/>
+    <cellStyle name="cjirwkcn" xfId="3"/>
+    <cellStyle name="cjirwkcn_Alternate" xfId="4"/>
+    <cellStyle name="odqgbqui" xfId="5"/>
+    <cellStyle name="odqgbqui_Alternate" xfId="6"/>
+    <cellStyle name="ccp4fcww" xfId="7"/>
+    <cellStyle name="ccp4fcww_Alternate" xfId="8"/>
+    <cellStyle name="ajkntxe5" xfId="9"/>
+    <cellStyle name="ajkntxe5_Alternate" xfId="10"/>
+    <cellStyle name="x5y44cip" xfId="11"/>
+    <cellStyle name="x5y44cip_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -602,111 +674,111 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>12001</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1.2999999523162842</v>
-      </c>
-      <c r="E2" s="9">
-        <v>3.990000009536743</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2.690000057220459</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
-        <v>12002</v>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10">
-        <v>5.329999923706055</v>
-      </c>
-      <c r="E3" s="10">
-        <v>12.100000381469727</v>
-      </c>
-      <c r="F3" s="10">
-        <v>6.769999980926514</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
-        <v>12003</v>
+      <c r="A4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9">
-        <v>8.989999771118164</v>
-      </c>
-      <c r="E4" s="9">
-        <v>15.369999885559082</v>
-      </c>
-      <c r="F4" s="9">
-        <v>6.380000114440918</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>12010</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4.300000190734863</v>
-      </c>
-      <c r="E5" s="10">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3.700000047683716</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
-        <v>12011</v>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9">
-        <v>13.770000457763672</v>
-      </c>
-      <c r="E6" s="9">
-        <v>23.479999542236328</v>
-      </c>
-      <c r="F6" s="9">
-        <v>9.710000038146973</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8">
         <f>SUBTOTAL(109, 'Chart And Secondary Axis'!C2:C6)</f>
